--- a/UDMI-CREATION/EASY-IO/HLI/all-hli.xlsx
+++ b/UDMI-CREATION/EASY-IO/HLI/all-hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\HLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AC5D8E-C7FF-457C-A07F-6228326F0851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E916E5A-5DEE-4665-AF63-E0D8F4D9FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4221,8 +4221,8 @@
   <dimension ref="A1:G1306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C307" sqref="C307"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
